--- a/data/trans_orig/P32A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26AFB628-2D3D-456E-BD62-6994D99CAF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DE4AF6-0DD9-4214-9DC8-32D09BC8D3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB39BE9F-D31F-4ED5-B866-79F3FD1A37D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78CFD196-685C-407F-84EE-3B5516BA71B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="248">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>97,02%</t>
+    <t>96,98%</t>
   </si>
   <si>
     <t>99,42%</t>
@@ -116,7 +116,7 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,24%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>98,81%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,03%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -158,28 +158,28 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,29%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>98,97%</t>
+    <t>99,22%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>98,66%</t>
+    <t>98,71%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -191,616 +191,598 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EFCB54-69F8-4ABD-B952-C2E0D752E86E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C495C1C-B62A-4721-AF89-BD400FF25792}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50580F31-DF38-47E4-8BAB-0FF2B6B4B1A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45B5B76-B1A6-4670-BEEC-598E393DDC2B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2108,7 +2090,7 @@
         <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2117,13 +2099,13 @@
         <v>15939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2120,13 @@
         <v>493695</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7">
         <v>213</v>
@@ -2156,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2168,13 +2150,13 @@
         <v>723877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2224,13 @@
         <v>33848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2257,13 +2239,13 @@
         <v>8100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -2272,13 +2254,13 @@
         <v>41949</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2275,13 @@
         <v>1160041</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -2308,13 +2290,13 @@
         <v>583830</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>1633</v>
@@ -2323,13 +2305,13 @@
         <v>1743870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2379,13 @@
         <v>1873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2412,13 +2394,13 @@
         <v>893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2427,13 +2409,13 @@
         <v>2766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,10 +2430,10 @@
         <v>324323</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -2463,10 +2445,10 @@
         <v>221441</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2478,13 +2460,13 @@
         <v>545764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2534,13 @@
         <v>51661</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2567,13 +2549,13 @@
         <v>8993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -2582,13 +2564,13 @@
         <v>60654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2585,13 @@
         <v>1978057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>951</v>
@@ -2618,13 +2600,13 @@
         <v>1035453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>2811</v>
@@ -2633,13 +2615,13 @@
         <v>3013510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13871FE8-8328-4AC4-B600-A232D2ADF27E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CFFB09-46FD-4AA4-91D5-42FE4DC80F70}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2731,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2838,13 +2820,13 @@
         <v>14611</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2853,13 +2835,13 @@
         <v>2298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2868,13 +2850,13 @@
         <v>16909</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2871,13 @@
         <v>344411</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>124</v>
@@ -2904,10 +2886,10 @@
         <v>131681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2919,13 +2901,13 @@
         <v>476092</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2975,13 @@
         <v>23372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3008,13 +2990,13 @@
         <v>5195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3023,13 +3005,13 @@
         <v>28566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3026,13 @@
         <v>1230726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -3059,13 +3041,13 @@
         <v>724383</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>1858</v>
@@ -3074,13 +3056,13 @@
         <v>1955110</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3130,13 @@
         <v>2029</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3163,13 +3145,13 @@
         <v>7991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3178,13 +3160,13 @@
         <v>10020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +3181,10 @@
         <v>375493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3214,13 +3196,13 @@
         <v>271724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>600</v>
@@ -3229,13 +3211,13 @@
         <v>647217</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3285,13 @@
         <v>40012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3318,13 +3300,13 @@
         <v>15484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3333,13 +3315,13 @@
         <v>55495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3336,13 @@
         <v>1950631</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>1079</v>
@@ -3369,13 +3351,13 @@
         <v>1127788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>2926</v>
@@ -3384,13 +3366,13 @@
         <v>3078419</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D551743-F7AE-47AE-A7AA-B512C8C6FBAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47F9B0-698C-4484-9BCC-88CF2289ECEB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3482,7 +3464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3589,13 +3571,13 @@
         <v>11834</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3604,13 +3586,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3619,13 +3601,13 @@
         <v>12737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3622,13 @@
         <v>242877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3655,10 +3637,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3670,13 +3652,13 @@
         <v>316393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,10 +3729,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3759,13 +3741,13 @@
         <v>10722</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3774,10 +3756,10 @@
         <v>21613</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>220</v>
@@ -3798,10 +3780,10 @@
         <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>701</v>
@@ -3810,13 +3792,13 @@
         <v>641094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>1602</v>
@@ -3825,13 +3807,13 @@
         <v>1630949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3881,13 @@
         <v>6352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3914,13 +3896,13 @@
         <v>3859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3929,13 +3911,13 @@
         <v>10211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3932,13 @@
         <v>342856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>347</v>
@@ -3965,13 +3947,13 @@
         <v>252279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>684</v>
@@ -3980,13 +3962,13 @@
         <v>595135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4036,13 @@
         <v>29077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4069,13 +4051,13 @@
         <v>15483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -4084,13 +4066,13 @@
         <v>44561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4087,13 @@
         <v>1575589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>1169</v>
@@ -4120,13 +4102,13 @@
         <v>966890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>2706</v>
@@ -4135,13 +4117,13 @@
         <v>2542477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P32A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DE4AF6-0DD9-4214-9DC8-32D09BC8D3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24D9180-EEDE-461C-B968-B60D34198CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78CFD196-685C-407F-84EE-3B5516BA71B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88EC8E60-58B7-453B-91D7-84A533CA5BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,706 +77,706 @@
     <t>1,42%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
   </si>
   <si>
     <t>97,64%</t>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C495C1C-B62A-4721-AF89-BD400FF25792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0838876-7E1E-4536-ABB5-26101E1FF5CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,10 +1476,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1488,13 +1488,13 @@
         <v>1018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1503,13 +1503,13 @@
         <v>12584</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,13 +1524,13 @@
         <v>1047838</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>522</v>
@@ -1539,10 +1539,10 @@
         <v>531836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -1554,13 +1554,13 @@
         <v>1579674</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,7 +1616,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1628,13 +1628,13 @@
         <v>1841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1643,13 +1643,13 @@
         <v>1018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1658,13 +1658,13 @@
         <v>2858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,10 +1679,10 @@
         <v>348666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -1694,10 +1694,10 @@
         <v>192093</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -1709,13 +1709,13 @@
         <v>540759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1783,13 @@
         <v>20089</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1798,13 +1798,13 @@
         <v>2959</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -1813,13 +1813,13 @@
         <v>23048</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1834,13 @@
         <v>1860815</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>870</v>
@@ -1849,28 +1849,28 @@
         <v>890540</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>2696</v>
       </c>
       <c r="N14" s="7">
-        <v>2751355</v>
+        <v>2751356</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,7 +1912,7 @@
         <v>2719</v>
       </c>
       <c r="N15" s="7">
-        <v>2774403</v>
+        <v>2774404</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45B5B76-B1A6-4670-BEEC-598E393DDC2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B989052-F0A8-48A9-9B44-36ADD3D73DE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2242,10 +2242,10 @@
         <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -2254,13 +2254,13 @@
         <v>41949</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2275,13 @@
         <v>1160041</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -2290,13 +2290,13 @@
         <v>583830</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>1633</v>
@@ -2305,13 +2305,13 @@
         <v>1743870</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2367,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2379,13 +2379,13 @@
         <v>1873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2394,13 +2394,13 @@
         <v>893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2409,13 +2409,13 @@
         <v>2766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,10 +2430,10 @@
         <v>324323</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -2445,10 +2445,10 @@
         <v>221441</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2460,13 +2460,13 @@
         <v>545764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2534,13 @@
         <v>51661</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2549,13 +2549,13 @@
         <v>8993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -2564,13 +2564,13 @@
         <v>60654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2585,13 @@
         <v>1978057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
         <v>951</v>
@@ -2600,13 +2600,13 @@
         <v>1035453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
         <v>2811</v>
@@ -2615,13 +2615,13 @@
         <v>3013510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CFFB09-46FD-4AA4-91D5-42FE4DC80F70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07230426-0597-4B41-98C5-17FD21C91464}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2713,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2820,13 +2820,13 @@
         <v>14611</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2835,13 +2835,13 @@
         <v>2298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2850,13 +2850,13 @@
         <v>16909</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2871,13 @@
         <v>344411</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>124</v>
@@ -2886,10 +2886,10 @@
         <v>131681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2901,13 +2901,13 @@
         <v>476092</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2975,13 @@
         <v>23372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2990,13 +2990,13 @@
         <v>5195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3005,13 +3005,13 @@
         <v>28566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3026,13 @@
         <v>1230726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -3041,13 +3041,13 @@
         <v>724383</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>1858</v>
@@ -3056,13 +3056,13 @@
         <v>1955110</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3130,13 +3130,13 @@
         <v>2029</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3145,13 +3145,13 @@
         <v>7991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3160,13 +3160,13 @@
         <v>10020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3178,13 @@
         <v>343</v>
       </c>
       <c r="D11" s="7">
-        <v>375493</v>
+        <v>375494</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3196,13 +3196,13 @@
         <v>271724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>600</v>
@@ -3211,13 +3211,13 @@
         <v>647217</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,7 +3229,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>377522</v>
+        <v>377523</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3285,13 +3285,13 @@
         <v>40012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3300,13 +3300,13 @@
         <v>15484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3315,13 +3315,13 @@
         <v>55495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,28 +3336,28 @@
         <v>1950631</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>1079</v>
       </c>
       <c r="I14" s="7">
-        <v>1127788</v>
+        <v>1127787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>2926</v>
@@ -3366,13 +3366,13 @@
         <v>3078419</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,7 +3399,7 @@
         <v>1093</v>
       </c>
       <c r="I15" s="7">
-        <v>1143272</v>
+        <v>1143271</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3447,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47F9B0-698C-4484-9BCC-88CF2289ECEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B09E8F-2E38-4D83-8EEE-050E9FB65FD8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3464,7 +3464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3571,13 +3571,13 @@
         <v>11834</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3586,13 +3586,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3601,13 +3601,13 @@
         <v>12737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3622,13 @@
         <v>242877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3637,10 +3637,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3652,13 +3652,13 @@
         <v>316393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,10 +3729,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3741,13 +3741,13 @@
         <v>10722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3756,13 +3756,13 @@
         <v>21613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3777,13 @@
         <v>989855</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>701</v>
@@ -3792,13 +3792,13 @@
         <v>641094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>1602</v>
@@ -3807,13 +3807,13 @@
         <v>1630949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3869,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3881,13 +3881,13 @@
         <v>6352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3896,13 +3896,13 @@
         <v>3859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3911,13 +3911,13 @@
         <v>10211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3932,13 @@
         <v>342856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>347</v>
@@ -3947,13 +3947,13 @@
         <v>252279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>684</v>
@@ -3962,13 +3962,13 @@
         <v>595135</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4036,13 @@
         <v>29077</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4051,10 +4051,10 @@
         <v>15483</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>238</v>
@@ -4066,7 +4066,7 @@
         <v>44561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>239</v>
@@ -4087,13 +4087,13 @@
         <v>1575589</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>1169</v>
@@ -4102,13 +4102,13 @@
         <v>966890</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>2706</v>
@@ -4117,7 +4117,7 @@
         <v>2542477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>246</v>

--- a/data/trans_orig/P32A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24D9180-EEDE-461C-B968-B60D34198CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79783972-2A62-4660-806F-0FE98C45FBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88EC8E60-58B7-453B-91D7-84A533CA5BF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B659721-15AC-4657-B489-9582FCD7DE23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="254">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,718 +71,736 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0838876-7E1E-4536-ABB5-26101E1FF5CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E64A69E-B08B-4B8E-95D2-08A8D661E8A9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,10 +1494,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1488,13 +1506,13 @@
         <v>1018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1503,13 +1521,13 @@
         <v>12584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,13 +1542,13 @@
         <v>1047838</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>522</v>
@@ -1539,10 +1557,10 @@
         <v>531836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -1554,13 +1572,13 @@
         <v>1579674</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,7 +1634,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1628,13 +1646,13 @@
         <v>1841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1643,13 +1661,13 @@
         <v>1018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1658,13 +1676,13 @@
         <v>2858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,10 +1697,10 @@
         <v>348666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -1694,10 +1712,10 @@
         <v>192093</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -1709,13 +1727,13 @@
         <v>540759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1801,13 @@
         <v>20089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1798,13 +1816,13 @@
         <v>2959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -1813,13 +1831,13 @@
         <v>23048</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1852,13 @@
         <v>1860815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>870</v>
@@ -1849,28 +1867,28 @@
         <v>890540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>2696</v>
       </c>
       <c r="N14" s="7">
-        <v>2751356</v>
+        <v>2751355</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,7 +1930,7 @@
         <v>2719</v>
       </c>
       <c r="N15" s="7">
-        <v>2774404</v>
+        <v>2774403</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1945,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B989052-F0A8-48A9-9B44-36ADD3D73DE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94DB392-CDE8-42DF-86AD-1F8ED3ABA28D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2090,7 +2108,7 @@
         <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2099,13 +2117,13 @@
         <v>15939</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2138,13 @@
         <v>493695</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H5" s="7">
         <v>213</v>
@@ -2138,7 +2156,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2150,13 +2168,13 @@
         <v>723877</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2242,13 @@
         <v>33848</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2239,13 +2257,13 @@
         <v>8100</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -2254,13 +2272,13 @@
         <v>41949</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2293,13 @@
         <v>1160041</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -2290,13 +2308,13 @@
         <v>583830</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>1633</v>
@@ -2367,7 +2385,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2379,13 +2397,13 @@
         <v>1873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2394,13 +2412,13 @@
         <v>893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2409,13 +2427,13 @@
         <v>2766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,10 +2448,10 @@
         <v>324323</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -2445,10 +2463,10 @@
         <v>221441</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2460,10 +2478,10 @@
         <v>545764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>119</v>
@@ -2555,7 +2573,7 @@
         <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -2564,13 +2582,13 @@
         <v>60654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2603,13 @@
         <v>1978057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>951</v>
@@ -2600,13 +2618,13 @@
         <v>1035453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>2811</v>
@@ -2615,13 +2633,13 @@
         <v>3013510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07230426-0597-4B41-98C5-17FD21C91464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3AE83F-DEF2-447A-9866-762F978F1FD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2713,7 +2731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2820,13 +2838,13 @@
         <v>14611</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2835,13 +2853,13 @@
         <v>2298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2850,13 +2868,13 @@
         <v>16909</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2889,13 @@
         <v>344411</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>124</v>
@@ -2886,10 +2904,10 @@
         <v>131681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2901,13 +2919,13 @@
         <v>476092</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2993,13 @@
         <v>23372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2990,13 +3008,13 @@
         <v>5195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3005,13 +3023,13 @@
         <v>28566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3044,13 @@
         <v>1230726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -3041,13 +3059,13 @@
         <v>724383</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>1858</v>
@@ -3056,13 +3074,13 @@
         <v>1955110</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3136,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3130,13 +3148,13 @@
         <v>2029</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3145,13 +3163,13 @@
         <v>7991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3160,13 +3178,13 @@
         <v>10020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3196,13 @@
         <v>343</v>
       </c>
       <c r="D11" s="7">
-        <v>375494</v>
+        <v>375493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3196,13 +3214,13 @@
         <v>271724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>600</v>
@@ -3211,13 +3229,13 @@
         <v>647217</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,7 +3247,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>377523</v>
+        <v>377522</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3285,13 +3303,13 @@
         <v>40012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3300,13 +3318,13 @@
         <v>15484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3315,13 +3333,13 @@
         <v>55495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,28 +3354,28 @@
         <v>1950631</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>1079</v>
       </c>
       <c r="I14" s="7">
-        <v>1127787</v>
+        <v>1127788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>2926</v>
@@ -3366,13 +3384,13 @@
         <v>3078419</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,7 +3417,7 @@
         <v>1093</v>
       </c>
       <c r="I15" s="7">
-        <v>1143271</v>
+        <v>1143272</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3447,7 +3465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B09E8F-2E38-4D83-8EEE-050E9FB65FD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC0C533-7C29-4402-BEE6-176E5FC98BA2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3464,7 +3482,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3571,13 +3589,13 @@
         <v>11834</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3586,13 +3604,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3601,13 +3619,13 @@
         <v>12737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3640,13 @@
         <v>242877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3637,10 +3655,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3652,13 +3670,13 @@
         <v>316393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,10 +3747,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3741,13 +3759,13 @@
         <v>10722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3756,13 +3774,13 @@
         <v>21613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3795,13 @@
         <v>989855</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
         <v>701</v>
@@ -3792,13 +3810,13 @@
         <v>641094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>1602</v>
@@ -3807,13 +3825,13 @@
         <v>1630949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3887,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3881,13 +3899,13 @@
         <v>6352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3896,13 +3914,13 @@
         <v>3859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3911,13 +3929,13 @@
         <v>10211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3950,13 @@
         <v>342856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
         <v>347</v>
@@ -3947,13 +3965,13 @@
         <v>252279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>684</v>
@@ -3962,13 +3980,13 @@
         <v>595135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4054,13 @@
         <v>29077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4051,13 +4069,13 @@
         <v>15483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -4066,13 +4084,13 @@
         <v>44561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4105,13 @@
         <v>1575589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>1169</v>
@@ -4102,13 +4120,13 @@
         <v>966890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>2706</v>
@@ -4117,13 +4135,13 @@
         <v>2542477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P32A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79783972-2A62-4660-806F-0FE98C45FBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{509230BD-DAA1-40EC-AB8D-2C3D9B84BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B659721-15AC-4657-B489-9582FCD7DE23}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C3A5CFBD-8CF2-4C3B-AE9A-142CBC5DBA4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="244">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -641,166 +641,136 @@
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E64A69E-B08B-4B8E-95D2-08A8D661E8A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846DB44-2BA1-49EB-A515-1C47F9096567}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1554,7 +1524,7 @@
         <v>522</v>
       </c>
       <c r="I8" s="7">
-        <v>531836</v>
+        <v>531835</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1605,7 +1575,7 @@
         <v>523</v>
       </c>
       <c r="I9" s="7">
-        <v>532854</v>
+        <v>532853</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94DB392-CDE8-42DF-86AD-1F8ED3ABA28D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559EFF8A-7A05-4DB4-B93D-80DB33B25912}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2714,7 +2684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3AE83F-DEF2-447A-9866-762F978F1FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8671F2D-D48D-404E-B176-3BF754160074}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3196,7 +3166,7 @@
         <v>343</v>
       </c>
       <c r="D11" s="7">
-        <v>375493</v>
+        <v>375494</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>178</v>
@@ -3247,7 +3217,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>377522</v>
+        <v>377523</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3366,7 +3336,7 @@
         <v>1079</v>
       </c>
       <c r="I14" s="7">
-        <v>1127788</v>
+        <v>1127787</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>195</v>
@@ -3417,7 +3387,7 @@
         <v>1093</v>
       </c>
       <c r="I15" s="7">
-        <v>1143272</v>
+        <v>1143271</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3465,7 +3435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC0C533-7C29-4402-BEE6-176E5FC98BA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC36B3A7-77D0-42A1-86B6-CA735186BD74}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3586,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>11834</v>
+        <v>11215</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>200</v>
@@ -3601,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>903</v>
+        <v>854</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>203</v>
@@ -3616,16 +3586,16 @@
         <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>12737</v>
+        <v>12069</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,28 +3607,28 @@
         <v>299</v>
       </c>
       <c r="D5" s="7">
-        <v>242877</v>
+        <v>232041</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
       </c>
       <c r="I5" s="7">
-        <v>73516</v>
+        <v>66479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3667,16 +3637,16 @@
         <v>420</v>
       </c>
       <c r="N5" s="7">
-        <v>316393</v>
+        <v>298520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3658,7 @@
         <v>314</v>
       </c>
       <c r="D6" s="7">
-        <v>254711</v>
+        <v>243256</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3703,7 +3673,7 @@
         <v>123</v>
       </c>
       <c r="I6" s="7">
-        <v>74419</v>
+        <v>67333</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3718,7 +3688,7 @@
         <v>437</v>
       </c>
       <c r="N6" s="7">
-        <v>329130</v>
+        <v>310589</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3741,46 +3711,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>10891</v>
+        <v>10607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>10722</v>
+        <v>9710</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>21613</v>
+        <v>20317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,22 +3762,22 @@
         <v>901</v>
       </c>
       <c r="D8" s="7">
-        <v>989855</v>
+        <v>970468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>701</v>
       </c>
       <c r="I8" s="7">
-        <v>641094</v>
+        <v>695509</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>223</v>
@@ -3822,16 +3792,16 @@
         <v>1602</v>
       </c>
       <c r="N8" s="7">
-        <v>1630949</v>
+        <v>1665977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3813,7 @@
         <v>913</v>
       </c>
       <c r="D9" s="7">
-        <v>1000746</v>
+        <v>981075</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3858,7 +3828,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>651816</v>
+        <v>705219</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3873,7 +3843,7 @@
         <v>1628</v>
       </c>
       <c r="N9" s="7">
-        <v>1652562</v>
+        <v>1686294</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3896,46 +3866,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>6352</v>
+        <v>6167</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>3859</v>
+        <v>3532</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>10211</v>
+        <v>9699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,46 +3917,46 @@
         <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>342856</v>
+        <v>336773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>347</v>
       </c>
       <c r="I11" s="7">
-        <v>252279</v>
+        <v>237654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>684</v>
       </c>
       <c r="N11" s="7">
-        <v>595135</v>
+        <v>574427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +3968,7 @@
         <v>346</v>
       </c>
       <c r="D12" s="7">
-        <v>349208</v>
+        <v>342940</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4013,7 +3983,7 @@
         <v>353</v>
       </c>
       <c r="I12" s="7">
-        <v>256138</v>
+        <v>241186</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4028,7 +3998,7 @@
         <v>699</v>
       </c>
       <c r="N12" s="7">
-        <v>605346</v>
+        <v>584126</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4051,46 +4021,46 @@
         <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>29077</v>
+        <v>27988</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>15483</v>
+        <v>14096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>44561</v>
+        <v>42084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,46 +4072,46 @@
         <v>1537</v>
       </c>
       <c r="D14" s="7">
-        <v>1575589</v>
+        <v>1539282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>1169</v>
       </c>
       <c r="I14" s="7">
-        <v>966890</v>
+        <v>999643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>2706</v>
       </c>
       <c r="N14" s="7">
-        <v>2542477</v>
+        <v>2538925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,7 +4123,7 @@
         <v>1573</v>
       </c>
       <c r="D15" s="7">
-        <v>1604666</v>
+        <v>1567270</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4168,7 +4138,7 @@
         <v>1191</v>
       </c>
       <c r="I15" s="7">
-        <v>982373</v>
+        <v>1013739</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4183,7 +4153,7 @@
         <v>2764</v>
       </c>
       <c r="N15" s="7">
-        <v>2587038</v>
+        <v>2581009</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
